--- a/Week1/Docs/SE1601_SWP391_OnlineShop_WeeklyReport_W1.xlsx
+++ b/Week1/Docs/SE1601_SWP391_OnlineShop_WeeklyReport_W1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215"/>
+    <workbookView windowWidth="22368" windowHeight="9215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>PROJECT REPORT</t>
   </si>
@@ -60,6 +60,29 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>| Quy t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ắ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>c nhóm |</t>
+    </r>
+  </si>
+  <si>
     <t>Choose topic project</t>
   </si>
   <si>
@@ -69,15 +92,298 @@
     <t>Online Clothes&amp;Shoes Shop System</t>
   </si>
   <si>
+    <r>
+      <t>1 . T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ườ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">i trong nhóm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>đề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>u ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> code front - end , back - end c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">a màn hình </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>đượ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>c giao .</t>
+    </r>
+  </si>
+  <si>
     <t>Find out user classes,user cases and function requirements</t>
   </si>
   <si>
     <t>Trần Thi Tuyết Lan</t>
   </si>
   <si>
+    <r>
+      <t>2. Ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ỉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> có technical Leadder . làm tài li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>u ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n chung là file Backlog , Weekly Meeting , v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ch ra khung ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ng trình c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a nhóm</t>
+    </r>
+  </si>
+  <si>
     <t>Lê Thị Vân Anh</t>
   </si>
   <si>
+    <t>3. Chi có TL design databasse table diagram ( 20-25 tables )</t>
+  </si>
+  <si>
     <t>Design database</t>
   </si>
   <si>
@@ -87,7 +393,87 @@
     <t>Database design including data types</t>
   </si>
   <si>
+    <r>
+      <t>4 . M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i thành viên 1 ngày code 2 gi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ờ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> , vi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t docs 30 phút , h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>p nhóm hàng ngày 10 phút .</t>
+    </r>
+  </si>
+  <si>
     <t>Đỗ Đức Hữu</t>
+  </si>
+  <si>
+    <t>5. Ai không code được thì kêu lên với nhóm , nhóm cùng giúp đỡ để code dc . Phải ghi vấn đề gặp phải đê nêu ra phương hướng giải quyết.</t>
   </si>
   <si>
     <t>Bùi Thái Dương</t>
@@ -146,12 +532,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +554,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11.25"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI Historic"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI Historic"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.25"/>
+      <color rgb="FFFF0000"/>
+      <name val="var(--comment-footer-background"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -177,12 +581,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -191,7 +603,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,9 +662,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,23 +693,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -253,66 +710,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="11.25"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,19 +743,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,7 +881,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,155 +923,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -535,15 +1048,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,28 +1108,26 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -635,134 +1137,135 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -791,9 +1294,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -802,14 +1302,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="32" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="32" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="32" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="32" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="32" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="32" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="32" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -842,23 +1354,24 @@
     <cellStyle name="Bad" xfId="29" builtinId="27"/>
     <cellStyle name="Neutral" xfId="30" builtinId="28"/>
     <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="32"/>
+    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1127,10 +1640,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:K9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4"/>
@@ -1213,7 +1726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" ht="16.2" spans="1:28">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1230,107 +1743,203 @@
       <c r="H6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="O6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="21"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" ht="16.2" spans="1:28">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="H7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="O7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="22"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" ht="16.2" spans="1:28">
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="B8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
+      <c r="O8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="22"/>
     </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+    <row r="9" ht="16.2" spans="2:28">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
+      <c r="O9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="22"/>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="10">
+    <row r="10" ht="16.2" spans="1:28">
+      <c r="A10" s="9">
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="10"/>
+      <c r="F10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="9"/>
       <c r="H10" s="8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
+      <c r="O10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="22"/>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="10"/>
+    <row r="11" spans="1:28">
+      <c r="A11" s="9"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="10"/>
+      <c r="F11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="9"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
+      <c r="O11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="23"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="10"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -1342,170 +1951,170 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="11" t="s">
-        <v>21</v>
+      <c r="A15" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M16" s="13"/>
+      <c r="L16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>1</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M17" s="9"/>
+      <c r="L17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>2</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M18" s="9"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>3</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M19" s="9"/>
+      <c r="L19" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>4</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M20" s="9"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="41">
